--- a/data/dataframe/10020.xlsx
+++ b/data/dataframe/10020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shujie/jlab/CJ/CJ-database/data/JAM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B6DC4C-7E88-0745-8730-005F3A93C744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AAC03E-798F-AD41-9CBB-BD378B7F8C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="16380" windowHeight="8200" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="37">
   <si>
     <t>exp</t>
   </si>
@@ -112,9 +112,6 @@
     <t>nmc</t>
   </si>
   <si>
-    <t>f2</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -149,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -182,6 +179,12 @@
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -251,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -397,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -591,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>9</v>
@@ -668,16 +671,16 @@
         <v>90</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -754,16 +757,16 @@
         <v>90</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -840,16 +843,16 @@
         <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -926,16 +929,16 @@
         <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1012,16 +1015,16 @@
         <v>90</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -1098,16 +1101,16 @@
         <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -1184,16 +1187,16 @@
         <v>90</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -1270,16 +1273,16 @@
         <v>90</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1356,16 +1359,16 @@
         <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1442,16 +1445,16 @@
         <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1528,16 +1531,16 @@
         <v>90</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1614,16 +1617,16 @@
         <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
@@ -1700,16 +1703,16 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -1786,16 +1789,16 @@
         <v>90</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
@@ -1872,16 +1875,16 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1958,16 +1961,16 @@
         <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -2044,16 +2047,16 @@
         <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2130,16 +2133,16 @@
         <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2216,16 +2219,16 @@
         <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2302,16 +2305,16 @@
         <v>90</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2388,16 +2391,16 @@
         <v>90</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2474,16 +2477,16 @@
         <v>90</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -2560,16 +2563,16 @@
         <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K24" s="1">
         <v>1</v>
@@ -2646,16 +2649,16 @@
         <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -2732,16 +2735,16 @@
         <v>90</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -2818,16 +2821,16 @@
         <v>90</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -2904,16 +2907,16 @@
         <v>90</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -2990,16 +2993,16 @@
         <v>90</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -3076,16 +3079,16 @@
         <v>90</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -3162,16 +3165,16 @@
         <v>90</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
@@ -3248,16 +3251,16 @@
         <v>90</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
@@ -3334,16 +3337,16 @@
         <v>90</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K33" s="1">
         <v>1</v>
@@ -3420,16 +3423,16 @@
         <v>90</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
@@ -3506,16 +3509,16 @@
         <v>90</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
@@ -3592,16 +3595,16 @@
         <v>90</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
@@ -3678,16 +3681,16 @@
         <v>90</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K37" s="1">
         <v>1</v>
@@ -3764,16 +3767,16 @@
         <v>90</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
@@ -3850,16 +3853,16 @@
         <v>90</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
@@ -3936,16 +3939,16 @@
         <v>90</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
@@ -4022,16 +4025,16 @@
         <v>90</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K41" s="1">
         <v>1</v>
@@ -4108,16 +4111,16 @@
         <v>90</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K42" s="1">
         <v>1</v>
@@ -4194,16 +4197,16 @@
         <v>90</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K43" s="1">
         <v>1</v>
@@ -4280,16 +4283,16 @@
         <v>90</v>
       </c>
       <c r="G44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K44" s="1">
         <v>1</v>
@@ -4366,16 +4369,16 @@
         <v>90</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K45" s="1">
         <v>1</v>
@@ -4452,16 +4455,16 @@
         <v>90</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
@@ -4538,16 +4541,16 @@
         <v>90</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K47" s="1">
         <v>1</v>
@@ -4624,16 +4627,16 @@
         <v>90</v>
       </c>
       <c r="G48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
@@ -4710,16 +4713,16 @@
         <v>90</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -4796,16 +4799,16 @@
         <v>90</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -4882,16 +4885,16 @@
         <v>90</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K51" s="1">
         <v>1</v>
@@ -4968,16 +4971,16 @@
         <v>90</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K52" s="1">
         <v>1</v>
@@ -5054,16 +5057,16 @@
         <v>90</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K53" s="1">
         <v>1</v>
@@ -5140,16 +5143,16 @@
         <v>90</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
@@ -5226,16 +5229,16 @@
         <v>90</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
@@ -5312,16 +5315,16 @@
         <v>90</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K56" s="1">
         <v>1</v>
@@ -5398,16 +5401,16 @@
         <v>90</v>
       </c>
       <c r="G57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K57" s="1">
         <v>1</v>
@@ -5484,16 +5487,16 @@
         <v>90</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K58" s="1">
         <v>1</v>
@@ -5570,16 +5573,16 @@
         <v>90</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K59" s="1">
         <v>1</v>
@@ -5656,16 +5659,16 @@
         <v>90</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K60" s="1">
         <v>1</v>
@@ -5742,16 +5745,16 @@
         <v>90</v>
       </c>
       <c r="G61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K61" s="1">
         <v>1</v>
@@ -5828,16 +5831,16 @@
         <v>90</v>
       </c>
       <c r="G62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K62" s="1">
         <v>1</v>
@@ -5914,16 +5917,16 @@
         <v>90</v>
       </c>
       <c r="G63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K63" s="1">
         <v>1</v>
@@ -6000,16 +6003,16 @@
         <v>90</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
@@ -6086,16 +6089,16 @@
         <v>90</v>
       </c>
       <c r="G65" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K65" s="1">
         <v>1</v>
@@ -6172,16 +6175,16 @@
         <v>90</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K66" s="1">
         <v>1</v>
@@ -6258,16 +6261,16 @@
         <v>90</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K67" s="1">
         <v>1</v>
@@ -6344,16 +6347,16 @@
         <v>90</v>
       </c>
       <c r="G68" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K68" s="1">
         <v>1</v>
@@ -6430,16 +6433,16 @@
         <v>90</v>
       </c>
       <c r="G69" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K69" s="1">
         <v>1</v>
@@ -6516,16 +6519,16 @@
         <v>90</v>
       </c>
       <c r="G70" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="J70" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K70" s="1">
         <v>1</v>
@@ -6602,16 +6605,16 @@
         <v>90</v>
       </c>
       <c r="G71" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K71" s="1">
         <v>1</v>
@@ -6688,16 +6691,16 @@
         <v>90</v>
       </c>
       <c r="G72" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J72" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K72" s="1">
         <v>1</v>
@@ -6774,16 +6777,16 @@
         <v>90</v>
       </c>
       <c r="G73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K73" s="1">
         <v>1</v>
@@ -6860,16 +6863,16 @@
         <v>90</v>
       </c>
       <c r="G74" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K74" s="1">
         <v>1</v>
@@ -6946,16 +6949,16 @@
         <v>120</v>
       </c>
       <c r="G75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K75" s="1">
         <v>1</v>
@@ -7032,16 +7035,16 @@
         <v>120</v>
       </c>
       <c r="G76" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K76" s="1">
         <v>1</v>
@@ -7118,16 +7121,16 @@
         <v>120</v>
       </c>
       <c r="G77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K77" s="1">
         <v>1</v>
@@ -7204,16 +7207,16 @@
         <v>120</v>
       </c>
       <c r="G78" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K78" s="1">
         <v>1</v>
@@ -7290,16 +7293,16 @@
         <v>120</v>
       </c>
       <c r="G79" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K79" s="1">
         <v>1</v>
@@ -7376,16 +7379,16 @@
         <v>120</v>
       </c>
       <c r="G80" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K80" s="1">
         <v>1</v>
@@ -7462,16 +7465,16 @@
         <v>120</v>
       </c>
       <c r="G81" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K81" s="1">
         <v>1</v>
@@ -7548,16 +7551,16 @@
         <v>120</v>
       </c>
       <c r="G82" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K82" s="1">
         <v>1</v>
@@ -7634,16 +7637,16 @@
         <v>120</v>
       </c>
       <c r="G83" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K83" s="1">
         <v>1</v>
@@ -7720,16 +7723,16 @@
         <v>120</v>
       </c>
       <c r="G84" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K84" s="1">
         <v>1</v>
@@ -7806,16 +7809,16 @@
         <v>120</v>
       </c>
       <c r="G85" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K85" s="1">
         <v>1</v>
@@ -7892,16 +7895,16 @@
         <v>120</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="J86" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K86" s="1">
         <v>1</v>
@@ -7978,16 +7981,16 @@
         <v>120</v>
       </c>
       <c r="G87" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K87" s="1">
         <v>1</v>
@@ -8064,16 +8067,16 @@
         <v>120</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="J88" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K88" s="1">
         <v>1</v>
@@ -8150,16 +8153,16 @@
         <v>120</v>
       </c>
       <c r="G89" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K89" s="1">
         <v>1</v>
@@ -8236,16 +8239,16 @@
         <v>120</v>
       </c>
       <c r="G90" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K90" s="1">
         <v>1</v>
@@ -8322,16 +8325,16 @@
         <v>120</v>
       </c>
       <c r="G91" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K91" s="1">
         <v>1</v>
@@ -8408,16 +8411,16 @@
         <v>120</v>
       </c>
       <c r="G92" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K92" s="1">
         <v>1</v>
@@ -8494,16 +8497,16 @@
         <v>120</v>
       </c>
       <c r="G93" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K93" s="1">
         <v>1</v>
@@ -8580,16 +8583,16 @@
         <v>120</v>
       </c>
       <c r="G94" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="J94" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K94" s="1">
         <v>1</v>
@@ -8666,16 +8669,16 @@
         <v>120</v>
       </c>
       <c r="G95" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K95" s="1">
         <v>1</v>
@@ -8752,16 +8755,16 @@
         <v>120</v>
       </c>
       <c r="G96" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K96" s="1">
         <v>1</v>
@@ -8838,16 +8841,16 @@
         <v>120</v>
       </c>
       <c r="G97" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K97" s="1">
         <v>1</v>
@@ -8924,16 +8927,16 @@
         <v>120</v>
       </c>
       <c r="G98" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="J98" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K98" s="1">
         <v>1</v>
@@ -9010,16 +9013,16 @@
         <v>120</v>
       </c>
       <c r="G99" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="J99" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K99" s="1">
         <v>1</v>
@@ -9096,16 +9099,16 @@
         <v>120</v>
       </c>
       <c r="G100" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="J100" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K100" s="1">
         <v>1</v>
@@ -9182,16 +9185,16 @@
         <v>120</v>
       </c>
       <c r="G101" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K101" s="1">
         <v>1</v>
@@ -9268,16 +9271,16 @@
         <v>120</v>
       </c>
       <c r="G102" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K102" s="1">
         <v>1</v>
@@ -9354,16 +9357,16 @@
         <v>120</v>
       </c>
       <c r="G103" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="J103" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K103" s="1">
         <v>1</v>
@@ -9440,16 +9443,16 @@
         <v>120</v>
       </c>
       <c r="G104" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="I104" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="J104" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K104" s="1">
         <v>1</v>
@@ -9526,16 +9529,16 @@
         <v>120</v>
       </c>
       <c r="G105" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="I105" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="J105" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K105" s="1">
         <v>1</v>
@@ -9612,16 +9615,16 @@
         <v>120</v>
       </c>
       <c r="G106" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="J106" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K106" s="1">
         <v>1</v>
@@ -9698,16 +9701,16 @@
         <v>120</v>
       </c>
       <c r="G107" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="J107" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K107" s="1">
         <v>1</v>
@@ -9784,16 +9787,16 @@
         <v>120</v>
       </c>
       <c r="G108" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="J108" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K108" s="1">
         <v>1</v>
@@ -9870,16 +9873,16 @@
         <v>120</v>
       </c>
       <c r="G109" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="J109" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K109" s="1">
         <v>1</v>
@@ -9956,16 +9959,16 @@
         <v>120</v>
       </c>
       <c r="G110" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="I110" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="J110" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K110" s="1">
         <v>1</v>
@@ -10042,16 +10045,16 @@
         <v>120</v>
       </c>
       <c r="G111" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="I111" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="J111" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K111" s="1">
         <v>1</v>
@@ -10128,16 +10131,16 @@
         <v>120</v>
       </c>
       <c r="G112" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="I112" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="J112" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K112" s="1">
         <v>1</v>
@@ -10214,16 +10217,16 @@
         <v>120</v>
       </c>
       <c r="G113" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="J113" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K113" s="1">
         <v>1</v>
@@ -10300,16 +10303,16 @@
         <v>120</v>
       </c>
       <c r="G114" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="I114" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="J114" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K114" s="1">
         <v>1</v>
@@ -10386,16 +10389,16 @@
         <v>120</v>
       </c>
       <c r="G115" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="I115" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="J115" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K115" s="1">
         <v>1</v>
@@ -10472,16 +10475,16 @@
         <v>120</v>
       </c>
       <c r="G116" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="I116" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="J116" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K116" s="1">
         <v>1</v>
@@ -10558,16 +10561,16 @@
         <v>120</v>
       </c>
       <c r="G117" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="I117" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="J117" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K117" s="1">
         <v>1</v>
@@ -10644,16 +10647,16 @@
         <v>120</v>
       </c>
       <c r="G118" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="I118" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="J118" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K118" s="1">
         <v>1</v>
@@ -10730,16 +10733,16 @@
         <v>120</v>
       </c>
       <c r="G119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="I119" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="J119" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K119" s="1">
         <v>1</v>
@@ -10816,16 +10819,16 @@
         <v>120</v>
       </c>
       <c r="G120" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="I120" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="J120" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K120" s="1">
         <v>1</v>
@@ -10902,16 +10905,16 @@
         <v>120</v>
       </c>
       <c r="G121" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="I121" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="J121" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K121" s="1">
         <v>1</v>
@@ -10988,16 +10991,16 @@
         <v>120</v>
       </c>
       <c r="G122" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="I122" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="J122" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K122" s="1">
         <v>1</v>
@@ -11074,16 +11077,16 @@
         <v>120</v>
       </c>
       <c r="G123" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="I123" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K123" s="1">
         <v>1</v>
@@ -11160,16 +11163,16 @@
         <v>120</v>
       </c>
       <c r="G124" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="I124" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="J124" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K124" s="1">
         <v>1</v>
@@ -11246,16 +11249,16 @@
         <v>120</v>
       </c>
       <c r="G125" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="I125" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="J125" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K125" s="1">
         <v>1</v>
@@ -11332,16 +11335,16 @@
         <v>120</v>
       </c>
       <c r="G126" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="I126" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="J126" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K126" s="1">
         <v>1</v>
@@ -11418,16 +11421,16 @@
         <v>120</v>
       </c>
       <c r="G127" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="I127" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="J127" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K127" s="1">
         <v>1</v>
@@ -11504,16 +11507,16 @@
         <v>120</v>
       </c>
       <c r="G128" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="I128" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="J128" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K128" s="1">
         <v>1</v>
@@ -11590,16 +11593,16 @@
         <v>120</v>
       </c>
       <c r="G129" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="I129" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="J129" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K129" s="1">
         <v>1</v>
@@ -11676,16 +11679,16 @@
         <v>120</v>
       </c>
       <c r="G130" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="I130" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="J130" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K130" s="1">
         <v>1</v>
@@ -11762,16 +11765,16 @@
         <v>120</v>
       </c>
       <c r="G131" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="I131" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="J131" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K131" s="1">
         <v>1</v>
@@ -11848,16 +11851,16 @@
         <v>120</v>
       </c>
       <c r="G132" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="I132" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="J132" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K132" s="1">
         <v>1</v>
@@ -11934,16 +11937,16 @@
         <v>120</v>
       </c>
       <c r="G133" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="I133" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="J133" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K133" s="1">
         <v>1</v>
@@ -12020,16 +12023,16 @@
         <v>120</v>
       </c>
       <c r="G134" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="I134" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="J134" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K134" s="1">
         <v>1</v>
@@ -12106,16 +12109,16 @@
         <v>120</v>
       </c>
       <c r="G135" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="I135" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I135" s="1" t="s">
+      <c r="J135" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K135" s="1">
         <v>1</v>
@@ -12192,16 +12195,16 @@
         <v>120</v>
       </c>
       <c r="G136" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="I136" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I136" s="1" t="s">
+      <c r="J136" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K136" s="1">
         <v>1</v>
@@ -12278,16 +12281,16 @@
         <v>120</v>
       </c>
       <c r="G137" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="I137" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I137" s="1" t="s">
+      <c r="J137" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K137" s="1">
         <v>1</v>
@@ -12364,16 +12367,16 @@
         <v>120</v>
       </c>
       <c r="G138" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="I138" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="J138" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K138" s="1">
         <v>1</v>
@@ -12450,16 +12453,16 @@
         <v>120</v>
       </c>
       <c r="G139" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="I139" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="J139" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K139" s="1">
         <v>1</v>
@@ -12536,16 +12539,16 @@
         <v>200</v>
       </c>
       <c r="G140" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="I140" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="J140" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K140" s="1">
         <v>1</v>
@@ -12622,16 +12625,16 @@
         <v>200</v>
       </c>
       <c r="G141" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="I141" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="J141" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K141" s="1">
         <v>1</v>
@@ -12708,16 +12711,16 @@
         <v>200</v>
       </c>
       <c r="G142" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H142" s="1" t="s">
+      <c r="I142" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I142" s="1" t="s">
+      <c r="J142" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K142" s="1">
         <v>1</v>
@@ -12794,16 +12797,16 @@
         <v>200</v>
       </c>
       <c r="G143" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H143" s="1" t="s">
+      <c r="I143" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I143" s="1" t="s">
+      <c r="J143" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K143" s="1">
         <v>1</v>
@@ -12880,16 +12883,16 @@
         <v>200</v>
       </c>
       <c r="G144" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="I144" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="J144" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K144" s="1">
         <v>1</v>
@@ -12966,16 +12969,16 @@
         <v>200</v>
       </c>
       <c r="G145" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H145" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H145" s="1" t="s">
+      <c r="I145" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="J145" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K145" s="1">
         <v>1</v>
@@ -13052,16 +13055,16 @@
         <v>200</v>
       </c>
       <c r="G146" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="I146" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I146" s="1" t="s">
+      <c r="J146" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K146" s="1">
         <v>1</v>
@@ -13138,16 +13141,16 @@
         <v>200</v>
       </c>
       <c r="G147" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="I147" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="J147" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K147" s="1">
         <v>1</v>
@@ -13224,16 +13227,16 @@
         <v>200</v>
       </c>
       <c r="G148" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="I148" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I148" s="1" t="s">
+      <c r="J148" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K148" s="1">
         <v>1</v>
@@ -13310,16 +13313,16 @@
         <v>200</v>
       </c>
       <c r="G149" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="I149" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I149" s="1" t="s">
+      <c r="J149" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K149" s="1">
         <v>1</v>
@@ -13396,16 +13399,16 @@
         <v>200</v>
       </c>
       <c r="G150" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="I150" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="J150" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K150" s="1">
         <v>1</v>
@@ -13482,16 +13485,16 @@
         <v>200</v>
       </c>
       <c r="G151" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="I151" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="J151" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K151" s="1">
         <v>1</v>
@@ -13568,16 +13571,16 @@
         <v>200</v>
       </c>
       <c r="G152" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="I152" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="J152" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K152" s="1">
         <v>1</v>
@@ -13654,16 +13657,16 @@
         <v>200</v>
       </c>
       <c r="G153" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H153" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="I153" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="J153" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K153" s="1">
         <v>1</v>
@@ -13740,16 +13743,16 @@
         <v>200</v>
       </c>
       <c r="G154" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="I154" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="J154" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K154" s="1">
         <v>1</v>
@@ -13826,16 +13829,16 @@
         <v>200</v>
       </c>
       <c r="G155" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H155" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="I155" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="J155" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K155" s="1">
         <v>1</v>
@@ -13912,16 +13915,16 @@
         <v>200</v>
       </c>
       <c r="G156" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="I156" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="J156" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K156" s="1">
         <v>1</v>
@@ -13998,16 +14001,16 @@
         <v>200</v>
       </c>
       <c r="G157" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="I157" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="J157" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K157" s="1">
         <v>1</v>
@@ -14084,16 +14087,16 @@
         <v>200</v>
       </c>
       <c r="G158" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="I158" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="J158" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K158" s="1">
         <v>1</v>
@@ -14170,16 +14173,16 @@
         <v>200</v>
       </c>
       <c r="G159" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H159" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="I159" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="J159" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K159" s="1">
         <v>1</v>
@@ -14256,16 +14259,16 @@
         <v>200</v>
       </c>
       <c r="G160" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H160" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="I160" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="J160" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K160" s="1">
         <v>1</v>
@@ -14342,16 +14345,16 @@
         <v>200</v>
       </c>
       <c r="G161" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H161" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="I161" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I161" s="1" t="s">
+      <c r="J161" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K161" s="1">
         <v>1</v>
@@ -14428,16 +14431,16 @@
         <v>200</v>
       </c>
       <c r="G162" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H162" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H162" s="1" t="s">
+      <c r="I162" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I162" s="1" t="s">
+      <c r="J162" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K162" s="1">
         <v>1</v>
@@ -14514,16 +14517,16 @@
         <v>200</v>
       </c>
       <c r="G163" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H163" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="I163" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I163" s="1" t="s">
+      <c r="J163" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K163" s="1">
         <v>1</v>
@@ -14600,16 +14603,16 @@
         <v>200</v>
       </c>
       <c r="G164" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H164" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="I164" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I164" s="1" t="s">
+      <c r="J164" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K164" s="1">
         <v>1</v>
@@ -14686,16 +14689,16 @@
         <v>200</v>
       </c>
       <c r="G165" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="I165" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="J165" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K165" s="1">
         <v>1</v>
@@ -14772,16 +14775,16 @@
         <v>200</v>
       </c>
       <c r="G166" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H166" s="1" t="s">
+      <c r="I166" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I166" s="1" t="s">
+      <c r="J166" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K166" s="1">
         <v>1</v>
@@ -14858,16 +14861,16 @@
         <v>200</v>
       </c>
       <c r="G167" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="I167" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="J167" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K167" s="1">
         <v>1</v>
@@ -14944,16 +14947,16 @@
         <v>200</v>
       </c>
       <c r="G168" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H168" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="I168" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I168" s="1" t="s">
+      <c r="J168" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K168" s="1">
         <v>1</v>
@@ -15030,16 +15033,16 @@
         <v>200</v>
       </c>
       <c r="G169" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H169" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="I169" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I169" s="1" t="s">
+      <c r="J169" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K169" s="1">
         <v>1</v>
@@ -15116,16 +15119,16 @@
         <v>200</v>
       </c>
       <c r="G170" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H170" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="I170" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I170" s="1" t="s">
+      <c r="J170" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K170" s="1">
         <v>1</v>
@@ -15202,16 +15205,16 @@
         <v>200</v>
       </c>
       <c r="G171" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H171" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H171" s="1" t="s">
+      <c r="I171" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I171" s="1" t="s">
+      <c r="J171" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K171" s="1">
         <v>1</v>
@@ -15288,16 +15291,16 @@
         <v>200</v>
       </c>
       <c r="G172" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="I172" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="J172" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K172" s="1">
         <v>1</v>
@@ -15374,16 +15377,16 @@
         <v>200</v>
       </c>
       <c r="G173" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H173" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H173" s="1" t="s">
+      <c r="I173" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I173" s="1" t="s">
+      <c r="J173" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K173" s="1">
         <v>1</v>
@@ -15460,16 +15463,16 @@
         <v>200</v>
       </c>
       <c r="G174" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H174" s="1" t="s">
+      <c r="I174" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="J174" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K174" s="1">
         <v>1</v>
@@ -15546,16 +15549,16 @@
         <v>200</v>
       </c>
       <c r="G175" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H175" s="1" t="s">
+      <c r="I175" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I175" s="1" t="s">
+      <c r="J175" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K175" s="1">
         <v>1</v>
@@ -15632,16 +15635,16 @@
         <v>200</v>
       </c>
       <c r="G176" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H176" s="1" t="s">
+      <c r="I176" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I176" s="1" t="s">
+      <c r="J176" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K176" s="1">
         <v>1</v>
@@ -15718,16 +15721,16 @@
         <v>200</v>
       </c>
       <c r="G177" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H177" s="1" t="s">
+      <c r="I177" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I177" s="1" t="s">
+      <c r="J177" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K177" s="1">
         <v>1</v>
@@ -15804,16 +15807,16 @@
         <v>200</v>
       </c>
       <c r="G178" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H178" s="1" t="s">
+      <c r="I178" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I178" s="1" t="s">
+      <c r="J178" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K178" s="1">
         <v>1</v>
@@ -15890,16 +15893,16 @@
         <v>200</v>
       </c>
       <c r="G179" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H179" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="I179" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="J179" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K179" s="1">
         <v>1</v>
@@ -15976,16 +15979,16 @@
         <v>200</v>
       </c>
       <c r="G180" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H180" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H180" s="1" t="s">
+      <c r="I180" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I180" s="1" t="s">
+      <c r="J180" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K180" s="1">
         <v>1</v>
@@ -16062,16 +16065,16 @@
         <v>200</v>
       </c>
       <c r="G181" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H181" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H181" s="1" t="s">
+      <c r="I181" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="J181" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K181" s="1">
         <v>1</v>
@@ -16148,16 +16151,16 @@
         <v>200</v>
       </c>
       <c r="G182" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H182" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="I182" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="J182" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J182" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K182" s="1">
         <v>1</v>
@@ -16234,16 +16237,16 @@
         <v>200</v>
       </c>
       <c r="G183" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H183" s="1" t="s">
+      <c r="I183" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I183" s="1" t="s">
+      <c r="J183" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K183" s="1">
         <v>1</v>
@@ -16320,16 +16323,16 @@
         <v>200</v>
       </c>
       <c r="G184" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H184" s="1" t="s">
+      <c r="I184" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I184" s="1" t="s">
+      <c r="J184" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K184" s="1">
         <v>1</v>
@@ -16406,16 +16409,16 @@
         <v>200</v>
       </c>
       <c r="G185" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H185" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="I185" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I185" s="1" t="s">
+      <c r="J185" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K185" s="1">
         <v>1</v>
@@ -16492,16 +16495,16 @@
         <v>200</v>
       </c>
       <c r="G186" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H186" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="I186" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I186" s="1" t="s">
+      <c r="J186" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K186" s="1">
         <v>1</v>
@@ -16578,16 +16581,16 @@
         <v>200</v>
       </c>
       <c r="G187" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H187" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H187" s="1" t="s">
+      <c r="I187" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I187" s="1" t="s">
+      <c r="J187" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K187" s="1">
         <v>1</v>
@@ -16664,16 +16667,16 @@
         <v>200</v>
       </c>
       <c r="G188" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H188" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H188" s="1" t="s">
+      <c r="I188" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I188" s="1" t="s">
+      <c r="J188" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J188" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K188" s="1">
         <v>1</v>
@@ -16750,16 +16753,16 @@
         <v>200</v>
       </c>
       <c r="G189" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H189" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="I189" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I189" s="1" t="s">
+      <c r="J189" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J189" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K189" s="1">
         <v>1</v>
@@ -16836,16 +16839,16 @@
         <v>200</v>
       </c>
       <c r="G190" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H190" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H190" s="1" t="s">
+      <c r="I190" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I190" s="1" t="s">
+      <c r="J190" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J190" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K190" s="1">
         <v>1</v>
@@ -16922,16 +16925,16 @@
         <v>200</v>
       </c>
       <c r="G191" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H191" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H191" s="1" t="s">
+      <c r="I191" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I191" s="1" t="s">
+      <c r="J191" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J191" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K191" s="1">
         <v>1</v>
@@ -17008,16 +17011,16 @@
         <v>200</v>
       </c>
       <c r="G192" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H192" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="I192" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I192" s="1" t="s">
+      <c r="J192" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K192" s="1">
         <v>1</v>
@@ -17094,16 +17097,16 @@
         <v>200</v>
       </c>
       <c r="G193" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H193" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="I193" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I193" s="1" t="s">
+      <c r="J193" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J193" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K193" s="1">
         <v>1</v>
@@ -17180,16 +17183,16 @@
         <v>200</v>
       </c>
       <c r="G194" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H194" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H194" s="1" t="s">
+      <c r="I194" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I194" s="1" t="s">
+      <c r="J194" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J194" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K194" s="1">
         <v>1</v>
@@ -17266,16 +17269,16 @@
         <v>200</v>
       </c>
       <c r="G195" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H195" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H195" s="1" t="s">
+      <c r="I195" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I195" s="1" t="s">
+      <c r="J195" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J195" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K195" s="1">
         <v>1</v>
@@ -17352,16 +17355,16 @@
         <v>200</v>
       </c>
       <c r="G196" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H196" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H196" s="1" t="s">
+      <c r="I196" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I196" s="1" t="s">
+      <c r="J196" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K196" s="1">
         <v>1</v>
@@ -17438,16 +17441,16 @@
         <v>200</v>
       </c>
       <c r="G197" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H197" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H197" s="1" t="s">
+      <c r="I197" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I197" s="1" t="s">
+      <c r="J197" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J197" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K197" s="1">
         <v>1</v>
@@ -17524,16 +17527,16 @@
         <v>200</v>
       </c>
       <c r="G198" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H198" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H198" s="1" t="s">
+      <c r="I198" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I198" s="1" t="s">
+      <c r="J198" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K198" s="1">
         <v>1</v>
@@ -17610,16 +17613,16 @@
         <v>200</v>
       </c>
       <c r="G199" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H199" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H199" s="1" t="s">
+      <c r="I199" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I199" s="1" t="s">
+      <c r="J199" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K199" s="1">
         <v>1</v>
@@ -17696,16 +17699,16 @@
         <v>200</v>
       </c>
       <c r="G200" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H200" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="I200" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I200" s="1" t="s">
+      <c r="J200" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J200" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K200" s="1">
         <v>1</v>
@@ -17782,16 +17785,16 @@
         <v>200</v>
       </c>
       <c r="G201" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H201" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="I201" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I201" s="1" t="s">
+      <c r="J201" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J201" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K201" s="1">
         <v>1</v>
@@ -17868,16 +17871,16 @@
         <v>200</v>
       </c>
       <c r="G202" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H202" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H202" s="1" t="s">
+      <c r="I202" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I202" s="1" t="s">
+      <c r="J202" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J202" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K202" s="1">
         <v>1</v>
@@ -17954,16 +17957,16 @@
         <v>200</v>
       </c>
       <c r="G203" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H203" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H203" s="1" t="s">
+      <c r="I203" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I203" s="1" t="s">
+      <c r="J203" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J203" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K203" s="1">
         <v>1</v>
@@ -18040,16 +18043,16 @@
         <v>200</v>
       </c>
       <c r="G204" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H204" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="I204" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I204" s="1" t="s">
+      <c r="J204" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J204" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K204" s="1">
         <v>1</v>
@@ -18126,16 +18129,16 @@
         <v>200</v>
       </c>
       <c r="G205" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H205" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H205" s="1" t="s">
+      <c r="I205" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I205" s="1" t="s">
+      <c r="J205" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J205" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K205" s="1">
         <v>1</v>
@@ -18212,16 +18215,16 @@
         <v>200</v>
       </c>
       <c r="G206" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H206" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H206" s="1" t="s">
+      <c r="I206" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I206" s="1" t="s">
+      <c r="J206" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J206" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K206" s="1">
         <v>1</v>
@@ -18298,16 +18301,16 @@
         <v>200</v>
       </c>
       <c r="G207" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H207" s="1" t="s">
+      <c r="I207" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I207" s="1" t="s">
+      <c r="J207" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J207" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K207" s="1">
         <v>1</v>
@@ -18384,16 +18387,16 @@
         <v>200</v>
       </c>
       <c r="G208" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H208" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H208" s="1" t="s">
+      <c r="I208" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I208" s="1" t="s">
+      <c r="J208" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J208" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K208" s="1">
         <v>1</v>
@@ -18470,16 +18473,16 @@
         <v>200</v>
       </c>
       <c r="G209" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H209" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H209" s="1" t="s">
+      <c r="I209" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I209" s="1" t="s">
+      <c r="J209" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J209" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K209" s="1">
         <v>1</v>
@@ -18556,16 +18559,16 @@
         <v>200</v>
       </c>
       <c r="G210" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H210" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H210" s="1" t="s">
+      <c r="I210" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I210" s="1" t="s">
+      <c r="J210" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J210" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K210" s="1">
         <v>1</v>
@@ -18642,16 +18645,16 @@
         <v>200</v>
       </c>
       <c r="G211" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H211" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H211" s="1" t="s">
+      <c r="I211" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I211" s="1" t="s">
+      <c r="J211" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J211" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K211" s="1">
         <v>1</v>
@@ -18728,16 +18731,16 @@
         <v>200</v>
       </c>
       <c r="G212" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H212" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H212" s="1" t="s">
+      <c r="I212" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I212" s="1" t="s">
+      <c r="J212" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J212" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K212" s="1">
         <v>1</v>
@@ -18814,16 +18817,16 @@
         <v>200</v>
       </c>
       <c r="G213" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H213" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H213" s="1" t="s">
+      <c r="I213" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I213" s="1" t="s">
+      <c r="J213" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J213" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K213" s="1">
         <v>1</v>
@@ -18900,16 +18903,16 @@
         <v>200</v>
       </c>
       <c r="G214" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H214" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="I214" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="J214" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J214" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K214" s="1">
         <v>1</v>
@@ -18986,16 +18989,16 @@
         <v>280</v>
       </c>
       <c r="G215" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H215" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H215" s="1" t="s">
+      <c r="I215" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I215" s="1" t="s">
+      <c r="J215" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J215" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K215" s="1">
         <v>1</v>
@@ -19072,16 +19075,16 @@
         <v>280</v>
       </c>
       <c r="G216" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H216" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="I216" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I216" s="1" t="s">
+      <c r="J216" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J216" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K216" s="1">
         <v>1</v>
@@ -19158,16 +19161,16 @@
         <v>280</v>
       </c>
       <c r="G217" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H217" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="I217" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I217" s="1" t="s">
+      <c r="J217" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J217" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K217" s="1">
         <v>1</v>
@@ -19244,16 +19247,16 @@
         <v>280</v>
       </c>
       <c r="G218" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H218" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H218" s="1" t="s">
+      <c r="I218" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I218" s="1" t="s">
+      <c r="J218" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J218" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K218" s="1">
         <v>1</v>
@@ -19330,16 +19333,16 @@
         <v>280</v>
       </c>
       <c r="G219" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H219" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H219" s="1" t="s">
+      <c r="I219" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I219" s="1" t="s">
+      <c r="J219" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J219" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K219" s="1">
         <v>1</v>
@@ -19416,16 +19419,16 @@
         <v>280</v>
       </c>
       <c r="G220" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H220" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H220" s="1" t="s">
+      <c r="I220" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I220" s="1" t="s">
+      <c r="J220" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K220" s="1">
         <v>1</v>
@@ -19502,16 +19505,16 @@
         <v>280</v>
       </c>
       <c r="G221" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H221" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="I221" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I221" s="1" t="s">
+      <c r="J221" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J221" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K221" s="1">
         <v>1</v>
@@ -19588,16 +19591,16 @@
         <v>280</v>
       </c>
       <c r="G222" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H222" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H222" s="1" t="s">
+      <c r="I222" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I222" s="1" t="s">
+      <c r="J222" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J222" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K222" s="1">
         <v>1</v>
@@ -19674,16 +19677,16 @@
         <v>280</v>
       </c>
       <c r="G223" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H223" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H223" s="1" t="s">
+      <c r="I223" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I223" s="1" t="s">
+      <c r="J223" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J223" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K223" s="1">
         <v>1</v>
@@ -19760,16 +19763,16 @@
         <v>280</v>
       </c>
       <c r="G224" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H224" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H224" s="1" t="s">
+      <c r="I224" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I224" s="1" t="s">
+      <c r="J224" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J224" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K224" s="1">
         <v>1</v>
@@ -19846,16 +19849,16 @@
         <v>280</v>
       </c>
       <c r="G225" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H225" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H225" s="1" t="s">
+      <c r="I225" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I225" s="1" t="s">
+      <c r="J225" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J225" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K225" s="1">
         <v>1</v>
@@ -19932,16 +19935,16 @@
         <v>280</v>
       </c>
       <c r="G226" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H226" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H226" s="1" t="s">
+      <c r="I226" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I226" s="1" t="s">
+      <c r="J226" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J226" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K226" s="1">
         <v>1</v>
@@ -20018,16 +20021,16 @@
         <v>280</v>
       </c>
       <c r="G227" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H227" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H227" s="1" t="s">
+      <c r="I227" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I227" s="1" t="s">
+      <c r="J227" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J227" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K227" s="1">
         <v>1</v>
@@ -20104,16 +20107,16 @@
         <v>280</v>
       </c>
       <c r="G228" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H228" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="I228" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I228" s="1" t="s">
+      <c r="J228" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J228" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K228" s="1">
         <v>1</v>
@@ -20190,16 +20193,16 @@
         <v>280</v>
       </c>
       <c r="G229" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H229" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H229" s="1" t="s">
+      <c r="I229" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I229" s="1" t="s">
+      <c r="J229" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J229" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K229" s="1">
         <v>1</v>
@@ -20276,16 +20279,16 @@
         <v>280</v>
       </c>
       <c r="G230" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H230" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H230" s="1" t="s">
+      <c r="I230" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I230" s="1" t="s">
+      <c r="J230" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J230" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K230" s="1">
         <v>1</v>
@@ -20362,16 +20365,16 @@
         <v>280</v>
       </c>
       <c r="G231" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H231" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H231" s="1" t="s">
+      <c r="I231" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I231" s="1" t="s">
+      <c r="J231" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J231" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K231" s="1">
         <v>1</v>
@@ -20448,16 +20451,16 @@
         <v>280</v>
       </c>
       <c r="G232" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H232" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H232" s="1" t="s">
+      <c r="I232" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I232" s="1" t="s">
+      <c r="J232" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J232" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K232" s="1">
         <v>1</v>
@@ -20534,16 +20537,16 @@
         <v>280</v>
       </c>
       <c r="G233" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H233" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H233" s="1" t="s">
+      <c r="I233" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I233" s="1" t="s">
+      <c r="J233" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J233" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K233" s="1">
         <v>1</v>
@@ -20620,16 +20623,16 @@
         <v>280</v>
       </c>
       <c r="G234" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H234" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H234" s="1" t="s">
+      <c r="I234" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I234" s="1" t="s">
+      <c r="J234" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J234" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K234" s="1">
         <v>1</v>
@@ -20706,16 +20709,16 @@
         <v>280</v>
       </c>
       <c r="G235" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H235" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H235" s="1" t="s">
+      <c r="I235" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I235" s="1" t="s">
+      <c r="J235" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J235" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K235" s="1">
         <v>1</v>
@@ -20792,16 +20795,16 @@
         <v>280</v>
       </c>
       <c r="G236" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H236" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H236" s="1" t="s">
+      <c r="I236" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I236" s="1" t="s">
+      <c r="J236" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J236" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K236" s="1">
         <v>1</v>
@@ -20878,16 +20881,16 @@
         <v>280</v>
       </c>
       <c r="G237" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H237" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H237" s="1" t="s">
+      <c r="I237" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I237" s="1" t="s">
+      <c r="J237" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J237" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K237" s="1">
         <v>1</v>
@@ -20964,16 +20967,16 @@
         <v>280</v>
       </c>
       <c r="G238" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H238" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H238" s="1" t="s">
+      <c r="I238" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I238" s="1" t="s">
+      <c r="J238" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J238" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K238" s="1">
         <v>1</v>
@@ -21050,16 +21053,16 @@
         <v>280</v>
       </c>
       <c r="G239" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H239" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H239" s="1" t="s">
+      <c r="I239" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I239" s="1" t="s">
+      <c r="J239" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J239" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K239" s="1">
         <v>1</v>
@@ -21136,16 +21139,16 @@
         <v>280</v>
       </c>
       <c r="G240" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H240" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H240" s="1" t="s">
+      <c r="I240" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I240" s="1" t="s">
+      <c r="J240" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J240" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K240" s="1">
         <v>1</v>
@@ -21222,16 +21225,16 @@
         <v>280</v>
       </c>
       <c r="G241" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H241" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H241" s="1" t="s">
+      <c r="I241" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I241" s="1" t="s">
+      <c r="J241" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J241" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K241" s="1">
         <v>1</v>
@@ -21308,16 +21311,16 @@
         <v>280</v>
       </c>
       <c r="G242" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H242" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H242" s="1" t="s">
+      <c r="I242" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I242" s="1" t="s">
+      <c r="J242" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J242" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K242" s="1">
         <v>1</v>
@@ -21394,16 +21397,16 @@
         <v>280</v>
       </c>
       <c r="G243" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H243" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H243" s="1" t="s">
+      <c r="I243" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I243" s="1" t="s">
+      <c r="J243" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J243" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K243" s="1">
         <v>1</v>
@@ -21480,16 +21483,16 @@
         <v>280</v>
       </c>
       <c r="G244" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H244" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H244" s="1" t="s">
+      <c r="I244" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I244" s="1" t="s">
+      <c r="J244" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J244" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K244" s="1">
         <v>1</v>
@@ -21566,16 +21569,16 @@
         <v>280</v>
       </c>
       <c r="G245" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H245" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H245" s="1" t="s">
+      <c r="I245" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I245" s="1" t="s">
+      <c r="J245" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J245" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K245" s="1">
         <v>1</v>
@@ -21652,16 +21655,16 @@
         <v>280</v>
       </c>
       <c r="G246" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H246" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H246" s="1" t="s">
+      <c r="I246" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I246" s="1" t="s">
+      <c r="J246" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J246" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K246" s="1">
         <v>1</v>
@@ -21738,16 +21741,16 @@
         <v>280</v>
       </c>
       <c r="G247" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H247" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H247" s="1" t="s">
+      <c r="I247" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I247" s="1" t="s">
+      <c r="J247" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J247" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K247" s="1">
         <v>1</v>
@@ -21824,16 +21827,16 @@
         <v>280</v>
       </c>
       <c r="G248" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H248" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H248" s="1" t="s">
+      <c r="I248" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I248" s="1" t="s">
+      <c r="J248" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J248" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K248" s="1">
         <v>1</v>
@@ -21910,16 +21913,16 @@
         <v>280</v>
       </c>
       <c r="G249" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H249" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H249" s="1" t="s">
+      <c r="I249" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I249" s="1" t="s">
+      <c r="J249" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J249" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K249" s="1">
         <v>1</v>
@@ -21996,16 +21999,16 @@
         <v>280</v>
       </c>
       <c r="G250" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H250" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H250" s="1" t="s">
+      <c r="I250" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I250" s="1" t="s">
+      <c r="J250" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J250" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K250" s="1">
         <v>1</v>
@@ -22082,16 +22085,16 @@
         <v>280</v>
       </c>
       <c r="G251" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H251" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H251" s="1" t="s">
+      <c r="I251" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I251" s="1" t="s">
+      <c r="J251" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J251" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K251" s="1">
         <v>1</v>
@@ -22168,16 +22171,16 @@
         <v>280</v>
       </c>
       <c r="G252" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H252" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H252" s="1" t="s">
+      <c r="I252" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I252" s="1" t="s">
+      <c r="J252" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J252" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K252" s="1">
         <v>1</v>
@@ -22254,16 +22257,16 @@
         <v>280</v>
       </c>
       <c r="G253" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H253" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H253" s="1" t="s">
+      <c r="I253" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I253" s="1" t="s">
+      <c r="J253" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J253" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K253" s="1">
         <v>1</v>
@@ -22340,16 +22343,16 @@
         <v>280</v>
       </c>
       <c r="G254" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H254" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H254" s="1" t="s">
+      <c r="I254" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I254" s="1" t="s">
+      <c r="J254" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J254" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K254" s="1">
         <v>1</v>
@@ -22426,16 +22429,16 @@
         <v>280</v>
       </c>
       <c r="G255" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H255" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H255" s="1" t="s">
+      <c r="I255" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I255" s="1" t="s">
+      <c r="J255" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J255" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K255" s="1">
         <v>1</v>
@@ -22512,16 +22515,16 @@
         <v>280</v>
       </c>
       <c r="G256" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H256" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H256" s="1" t="s">
+      <c r="I256" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I256" s="1" t="s">
+      <c r="J256" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J256" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K256" s="1">
         <v>1</v>
@@ -22598,16 +22601,16 @@
         <v>280</v>
       </c>
       <c r="G257" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H257" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H257" s="1" t="s">
+      <c r="I257" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I257" s="1" t="s">
+      <c r="J257" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J257" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K257" s="1">
         <v>1</v>
@@ -22684,16 +22687,16 @@
         <v>280</v>
       </c>
       <c r="G258" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H258" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H258" s="1" t="s">
+      <c r="I258" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I258" s="1" t="s">
+      <c r="J258" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J258" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K258" s="1">
         <v>1</v>
@@ -22770,16 +22773,16 @@
         <v>280</v>
       </c>
       <c r="G259" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H259" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H259" s="1" t="s">
+      <c r="I259" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I259" s="1" t="s">
+      <c r="J259" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J259" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K259" s="1">
         <v>1</v>
@@ -22856,16 +22859,16 @@
         <v>280</v>
       </c>
       <c r="G260" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H260" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H260" s="1" t="s">
+      <c r="I260" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I260" s="1" t="s">
+      <c r="J260" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J260" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K260" s="1">
         <v>1</v>
@@ -22942,16 +22945,16 @@
         <v>280</v>
       </c>
       <c r="G261" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H261" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H261" s="1" t="s">
+      <c r="I261" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I261" s="1" t="s">
+      <c r="J261" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J261" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K261" s="1">
         <v>1</v>
@@ -23028,16 +23031,16 @@
         <v>280</v>
       </c>
       <c r="G262" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H262" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H262" s="1" t="s">
+      <c r="I262" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I262" s="1" t="s">
+      <c r="J262" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J262" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K262" s="1">
         <v>1</v>
@@ -23114,16 +23117,16 @@
         <v>280</v>
       </c>
       <c r="G263" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H263" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H263" s="1" t="s">
+      <c r="I263" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I263" s="1" t="s">
+      <c r="J263" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J263" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K263" s="1">
         <v>1</v>
@@ -23200,16 +23203,16 @@
         <v>280</v>
       </c>
       <c r="G264" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H264" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H264" s="1" t="s">
+      <c r="I264" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I264" s="1" t="s">
+      <c r="J264" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J264" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K264" s="1">
         <v>1</v>
@@ -23286,16 +23289,16 @@
         <v>280</v>
       </c>
       <c r="G265" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H265" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H265" s="1" t="s">
+      <c r="I265" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I265" s="1" t="s">
+      <c r="J265" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J265" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K265" s="1">
         <v>1</v>
@@ -23372,16 +23375,16 @@
         <v>280</v>
       </c>
       <c r="G266" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H266" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H266" s="1" t="s">
+      <c r="I266" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I266" s="1" t="s">
+      <c r="J266" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J266" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K266" s="1">
         <v>1</v>
@@ -23458,16 +23461,16 @@
         <v>280</v>
       </c>
       <c r="G267" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H267" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H267" s="1" t="s">
+      <c r="I267" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I267" s="1" t="s">
+      <c r="J267" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J267" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K267" s="1">
         <v>1</v>
@@ -23544,16 +23547,16 @@
         <v>280</v>
       </c>
       <c r="G268" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H268" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H268" s="1" t="s">
+      <c r="I268" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I268" s="1" t="s">
+      <c r="J268" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J268" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K268" s="1">
         <v>1</v>
@@ -23630,16 +23633,16 @@
         <v>280</v>
       </c>
       <c r="G269" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H269" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H269" s="1" t="s">
+      <c r="I269" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I269" s="1" t="s">
+      <c r="J269" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J269" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K269" s="1">
         <v>1</v>
@@ -23716,16 +23719,16 @@
         <v>280</v>
       </c>
       <c r="G270" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H270" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H270" s="1" t="s">
+      <c r="I270" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I270" s="1" t="s">
+      <c r="J270" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J270" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K270" s="1">
         <v>1</v>
@@ -23802,16 +23805,16 @@
         <v>280</v>
       </c>
       <c r="G271" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H271" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H271" s="1" t="s">
+      <c r="I271" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I271" s="1" t="s">
+      <c r="J271" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J271" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K271" s="1">
         <v>1</v>
@@ -23888,16 +23891,16 @@
         <v>280</v>
       </c>
       <c r="G272" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H272" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H272" s="1" t="s">
+      <c r="I272" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I272" s="1" t="s">
+      <c r="J272" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J272" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K272" s="1">
         <v>1</v>
@@ -23974,16 +23977,16 @@
         <v>280</v>
       </c>
       <c r="G273" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H273" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H273" s="1" t="s">
+      <c r="I273" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I273" s="1" t="s">
+      <c r="J273" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J273" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K273" s="1">
         <v>1</v>
@@ -24060,16 +24063,16 @@
         <v>280</v>
       </c>
       <c r="G274" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H274" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H274" s="1" t="s">
+      <c r="I274" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I274" s="1" t="s">
+      <c r="J274" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J274" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K274" s="1">
         <v>1</v>
@@ -24146,16 +24149,16 @@
         <v>280</v>
       </c>
       <c r="G275" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H275" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H275" s="1" t="s">
+      <c r="I275" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I275" s="1" t="s">
+      <c r="J275" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J275" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K275" s="1">
         <v>1</v>
@@ -24232,16 +24235,16 @@
         <v>280</v>
       </c>
       <c r="G276" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H276" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H276" s="1" t="s">
+      <c r="I276" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I276" s="1" t="s">
+      <c r="J276" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J276" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K276" s="1">
         <v>1</v>
@@ -24318,16 +24321,16 @@
         <v>280</v>
       </c>
       <c r="G277" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H277" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H277" s="1" t="s">
+      <c r="I277" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I277" s="1" t="s">
+      <c r="J277" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J277" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K277" s="1">
         <v>1</v>
@@ -24404,16 +24407,16 @@
         <v>280</v>
       </c>
       <c r="G278" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H278" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H278" s="1" t="s">
+      <c r="I278" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I278" s="1" t="s">
+      <c r="J278" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J278" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K278" s="1">
         <v>1</v>
@@ -24490,16 +24493,16 @@
         <v>280</v>
       </c>
       <c r="G279" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H279" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H279" s="1" t="s">
+      <c r="I279" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I279" s="1" t="s">
+      <c r="J279" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J279" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K279" s="1">
         <v>1</v>
@@ -24576,16 +24579,16 @@
         <v>280</v>
       </c>
       <c r="G280" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H280" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H280" s="1" t="s">
+      <c r="I280" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I280" s="1" t="s">
+      <c r="J280" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J280" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K280" s="1">
         <v>1</v>
@@ -24662,16 +24665,16 @@
         <v>280</v>
       </c>
       <c r="G281" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H281" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H281" s="1" t="s">
+      <c r="I281" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I281" s="1" t="s">
+      <c r="J281" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J281" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K281" s="1">
         <v>1</v>
@@ -24748,16 +24751,16 @@
         <v>280</v>
       </c>
       <c r="G282" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H282" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H282" s="1" t="s">
+      <c r="I282" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I282" s="1" t="s">
+      <c r="J282" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J282" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K282" s="1">
         <v>1</v>
@@ -24834,16 +24837,16 @@
         <v>280</v>
       </c>
       <c r="G283" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H283" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H283" s="1" t="s">
+      <c r="I283" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I283" s="1" t="s">
+      <c r="J283" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J283" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K283" s="1">
         <v>1</v>
@@ -24920,16 +24923,16 @@
         <v>280</v>
       </c>
       <c r="G284" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H284" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H284" s="1" t="s">
+      <c r="I284" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I284" s="1" t="s">
+      <c r="J284" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J284" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K284" s="1">
         <v>1</v>
@@ -25006,16 +25009,16 @@
         <v>280</v>
       </c>
       <c r="G285" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H285" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H285" s="1" t="s">
+      <c r="I285" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I285" s="1" t="s">
+      <c r="J285" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J285" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K285" s="1">
         <v>1</v>
@@ -25092,16 +25095,16 @@
         <v>280</v>
       </c>
       <c r="G286" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H286" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H286" s="1" t="s">
+      <c r="I286" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I286" s="1" t="s">
+      <c r="J286" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J286" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K286" s="1">
         <v>1</v>
@@ -25178,16 +25181,16 @@
         <v>280</v>
       </c>
       <c r="G287" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H287" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H287" s="1" t="s">
+      <c r="I287" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I287" s="1" t="s">
+      <c r="J287" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J287" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K287" s="1">
         <v>1</v>
@@ -25264,16 +25267,16 @@
         <v>280</v>
       </c>
       <c r="G288" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H288" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H288" s="1" t="s">
+      <c r="I288" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I288" s="1" t="s">
+      <c r="J288" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J288" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K288" s="1">
         <v>1</v>
@@ -25350,16 +25353,16 @@
         <v>280</v>
       </c>
       <c r="G289" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H289" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H289" s="1" t="s">
+      <c r="I289" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I289" s="1" t="s">
+      <c r="J289" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J289" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K289" s="1">
         <v>1</v>
@@ -25436,16 +25439,16 @@
         <v>280</v>
       </c>
       <c r="G290" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H290" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H290" s="1" t="s">
+      <c r="I290" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I290" s="1" t="s">
+      <c r="J290" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J290" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K290" s="1">
         <v>1</v>
@@ -25522,16 +25525,16 @@
         <v>280</v>
       </c>
       <c r="G291" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H291" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H291" s="1" t="s">
+      <c r="I291" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I291" s="1" t="s">
+      <c r="J291" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J291" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K291" s="1">
         <v>1</v>
@@ -25608,16 +25611,16 @@
         <v>280</v>
       </c>
       <c r="G292" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H292" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H292" s="1" t="s">
+      <c r="I292" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I292" s="1" t="s">
+      <c r="J292" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J292" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K292" s="1">
         <v>1</v>
@@ -25694,16 +25697,16 @@
         <v>280</v>
       </c>
       <c r="G293" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H293" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H293" s="1" t="s">
+      <c r="I293" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I293" s="1" t="s">
+      <c r="J293" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J293" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K293" s="1">
         <v>1</v>
@@ -25761,6 +25764,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -25790,22 +25794,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
